--- a/data/trans_orig/IP07A12-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A12-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12FD0BBE-7B1D-429F-A680-4DA7054A62B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C783AA0-251B-458C-A37B-8FAD00F205ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{E7C2DA93-90BC-4FC9-8E6A-98FEAC32EE5C}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{FDE58E3B-5124-4F5C-8D95-912A6EE07690}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,27 +70,216 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
     <t>Casi siempre</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
     <t>Siempre</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
     <t>22,85%</t>
   </si>
   <si>
@@ -118,33 +307,6 @@
     <t>26,18%</t>
   </si>
   <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
     <t>41,99%</t>
   </si>
   <si>
@@ -172,30 +334,6 @@
     <t>45,73%</t>
   </si>
   <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
     <t>30,62%</t>
   </si>
   <si>
@@ -223,142 +361,55 @@
     <t>32,77%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
   </si>
   <si>
     <t>23,04%</t>
@@ -388,30 +439,6 @@
     <t>26,65%</t>
   </si>
   <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
     <t>42,15%</t>
   </si>
   <si>
@@ -439,33 +466,6 @@
     <t>44,82%</t>
   </si>
   <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
     <t>29,97%</t>
   </si>
   <si>
@@ -496,6 +496,183 @@
     <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2012 (Tasa respuesta: 44,78%)</t>
   </si>
   <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
     <t>18,06%</t>
   </si>
   <si>
@@ -523,30 +700,6 @@
     <t>21,78%</t>
   </si>
   <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
     <t>33,02%</t>
   </si>
   <si>
@@ -571,30 +724,6 @@
     <t>37,45%</t>
   </si>
   <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
     <t>40,86%</t>
   </si>
   <si>
@@ -622,133 +751,49 @@
     <t>44,63%</t>
   </si>
   <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
   </si>
   <si>
     <t>18,29%</t>
@@ -778,30 +823,6 @@
     <t>21,2%</t>
   </si>
   <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
     <t>33,18%</t>
   </si>
   <si>
@@ -829,27 +850,6 @@
     <t>37,37%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
     <t>40,56%</t>
   </si>
   <si>
@@ -880,6 +880,177 @@
     <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2015 (Tasa respuesta: 47,18%)</t>
   </si>
   <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
     <t>27,39%</t>
   </si>
   <si>
@@ -907,33 +1078,6 @@
     <t>28,99%</t>
   </si>
   <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
     <t>31,07%</t>
   </si>
   <si>
@@ -961,30 +1105,6 @@
     <t>35,79%</t>
   </si>
   <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
     <t>33,65%</t>
   </si>
   <si>
@@ -1012,124 +1132,40 @@
     <t>34,99%</t>
   </si>
   <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
   </si>
   <si>
     <t>26,51%</t>
@@ -1159,21 +1195,6 @@
     <t>29,49%</t>
   </si>
   <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
     <t>30,56%</t>
   </si>
   <si>
@@ -1199,27 +1220,6 @@
   </si>
   <si>
     <t>33,95%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
   </si>
   <si>
     <t>35,67%</t>
@@ -1635,7 +1635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED9D528F-8898-4C43-9D8F-E4C94B4540F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A3228C5-58CF-49C4-95ED-01CC98CE1CD5}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2025,10 +2025,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>63861</v>
+        <v>4025</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -2040,10 +2040,10 @@
         <v>19</v>
       </c>
       <c r="H10" s="7">
-        <v>94</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>62635</v>
+        <v>2058</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>20</v>
@@ -2055,10 +2055,10 @@
         <v>22</v>
       </c>
       <c r="M10" s="7">
-        <v>191</v>
+        <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>126496</v>
+        <v>6083</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>23</v>
@@ -2076,10 +2076,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>8666</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>26</v>
@@ -2091,10 +2091,10 @@
         <v>28</v>
       </c>
       <c r="H11" s="7">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I11" s="7">
-        <v>9457</v>
+        <v>2522</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>29</v>
@@ -2106,10 +2106,10 @@
         <v>31</v>
       </c>
       <c r="M11" s="7">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="N11" s="7">
-        <v>18123</v>
+        <v>2522</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>32</v>
@@ -2127,10 +2127,10 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>175</v>
+        <v>24</v>
       </c>
       <c r="D12" s="7">
-        <v>117370</v>
+        <v>15768</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>35</v>
@@ -2142,10 +2142,10 @@
         <v>37</v>
       </c>
       <c r="H12" s="7">
-        <v>166</v>
+        <v>25</v>
       </c>
       <c r="I12" s="7">
-        <v>113804</v>
+        <v>16977</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>38</v>
@@ -2157,10 +2157,10 @@
         <v>40</v>
       </c>
       <c r="M12" s="7">
-        <v>341</v>
+        <v>49</v>
       </c>
       <c r="N12" s="7">
-        <v>231174</v>
+        <v>32744</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>41</v>
@@ -2178,10 +2178,10 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D13" s="7">
-        <v>4032</v>
+        <v>28293</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>44</v>
@@ -2193,34 +2193,34 @@
         <v>46</v>
       </c>
       <c r="H13" s="7">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="I13" s="7">
-        <v>3349</v>
+        <v>18927</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>47</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="N13" s="7">
-        <v>7381</v>
+        <v>47219</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2229,49 +2229,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="D14" s="7">
-        <v>85591</v>
+        <v>17981</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H14" s="7">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="I14" s="7">
-        <v>75062</v>
+        <v>15559</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M14" s="7">
-        <v>241</v>
+        <v>50</v>
       </c>
       <c r="N14" s="7">
-        <v>160654</v>
+        <v>33540</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2280,93 +2280,93 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>419</v>
+        <v>100</v>
       </c>
       <c r="D15" s="7">
-        <v>279521</v>
+        <v>66066</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H15" s="7">
-        <v>392</v>
+        <v>83</v>
       </c>
       <c r="I15" s="7">
-        <v>264307</v>
+        <v>56042</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M15" s="7">
-        <v>811</v>
+        <v>183</v>
       </c>
       <c r="N15" s="7">
-        <v>543829</v>
+        <v>122107</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>15768</v>
+        <v>4032</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="7">
+        <v>5</v>
+      </c>
+      <c r="I16" s="7">
+        <v>3349</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="H16" s="7">
-        <v>25</v>
-      </c>
-      <c r="I16" s="7">
-        <v>16977</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>68</v>
       </c>
       <c r="M16" s="7">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="N16" s="7">
-        <v>32744</v>
+        <v>7381</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>69</v>
@@ -2384,10 +2384,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>8666</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>72</v>
@@ -2399,10 +2399,10 @@
         <v>74</v>
       </c>
       <c r="H17" s="7">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="I17" s="7">
-        <v>2522</v>
+        <v>9457</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>75</v>
@@ -2414,10 +2414,10 @@
         <v>77</v>
       </c>
       <c r="M17" s="7">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="N17" s="7">
-        <v>2522</v>
+        <v>18123</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>78</v>
@@ -2435,10 +2435,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="D18" s="7">
-        <v>28293</v>
+        <v>63861</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>80</v>
@@ -2450,10 +2450,10 @@
         <v>82</v>
       </c>
       <c r="H18" s="7">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="I18" s="7">
-        <v>18927</v>
+        <v>62635</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>83</v>
@@ -2465,10 +2465,10 @@
         <v>85</v>
       </c>
       <c r="M18" s="7">
-        <v>71</v>
+        <v>191</v>
       </c>
       <c r="N18" s="7">
-        <v>47219</v>
+        <v>126496</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>86</v>
@@ -2486,10 +2486,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>6</v>
+        <v>175</v>
       </c>
       <c r="D19" s="7">
-        <v>4025</v>
+        <v>117370</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>89</v>
@@ -2501,10 +2501,10 @@
         <v>91</v>
       </c>
       <c r="H19" s="7">
-        <v>3</v>
+        <v>166</v>
       </c>
       <c r="I19" s="7">
-        <v>2058</v>
+        <v>113804</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>92</v>
@@ -2516,10 +2516,10 @@
         <v>94</v>
       </c>
       <c r="M19" s="7">
-        <v>9</v>
+        <v>341</v>
       </c>
       <c r="N19" s="7">
-        <v>6083</v>
+        <v>231174</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>95</v>
@@ -2537,10 +2537,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="D20" s="7">
-        <v>17981</v>
+        <v>85591</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>98</v>
@@ -2552,10 +2552,10 @@
         <v>100</v>
       </c>
       <c r="H20" s="7">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="I20" s="7">
-        <v>15559</v>
+        <v>75062</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>101</v>
@@ -2567,10 +2567,10 @@
         <v>103</v>
       </c>
       <c r="M20" s="7">
-        <v>50</v>
+        <v>241</v>
       </c>
       <c r="N20" s="7">
-        <v>33540</v>
+        <v>160654</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>104</v>
@@ -2588,49 +2588,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>100</v>
+        <v>419</v>
       </c>
       <c r="D21" s="7">
-        <v>66066</v>
+        <v>279521</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H21" s="7">
-        <v>83</v>
+        <v>392</v>
       </c>
       <c r="I21" s="7">
-        <v>56042</v>
+        <v>264307</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M21" s="7">
-        <v>183</v>
+        <v>811</v>
       </c>
       <c r="N21" s="7">
-        <v>122107</v>
+        <v>543829</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2641,10 +2641,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="D22" s="7">
-        <v>79629</v>
+        <v>8057</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>107</v>
@@ -2656,10 +2656,10 @@
         <v>109</v>
       </c>
       <c r="H22" s="7">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="I22" s="7">
-        <v>79611</v>
+        <v>5407</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>110</v>
@@ -2671,10 +2671,10 @@
         <v>112</v>
       </c>
       <c r="M22" s="7">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="N22" s="7">
-        <v>159240</v>
+        <v>13464</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>113</v>
@@ -2728,7 +2728,7 @@
         <v>20645</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>122</v>
@@ -2743,10 +2743,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D24" s="7">
-        <v>145663</v>
+        <v>79629</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>124</v>
@@ -2758,10 +2758,10 @@
         <v>126</v>
       </c>
       <c r="H24" s="7">
-        <v>195</v>
+        <v>119</v>
       </c>
       <c r="I24" s="7">
-        <v>132730</v>
+        <v>79611</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>127</v>
@@ -2773,10 +2773,10 @@
         <v>129</v>
       </c>
       <c r="M24" s="7">
-        <v>412</v>
+        <v>240</v>
       </c>
       <c r="N24" s="7">
-        <v>278394</v>
+        <v>159240</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>130</v>
@@ -2794,10 +2794,10 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>12</v>
+        <v>217</v>
       </c>
       <c r="D25" s="7">
-        <v>8057</v>
+        <v>145663</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>133</v>
@@ -2809,10 +2809,10 @@
         <v>135</v>
       </c>
       <c r="H25" s="7">
-        <v>8</v>
+        <v>195</v>
       </c>
       <c r="I25" s="7">
-        <v>5407</v>
+        <v>132730</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>136</v>
@@ -2824,10 +2824,10 @@
         <v>138</v>
       </c>
       <c r="M25" s="7">
-        <v>20</v>
+        <v>412</v>
       </c>
       <c r="N25" s="7">
-        <v>13464</v>
+        <v>278394</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>139</v>
@@ -2902,13 +2902,13 @@
         <v>345587</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H27" s="7">
         <v>475</v>
@@ -2917,13 +2917,13 @@
         <v>320349</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M27" s="7">
         <v>994</v>
@@ -2932,13 +2932,13 @@
         <v>665936</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2957,7 +2957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFBBAED-69CA-4EC6-95AD-4DA71B8B0C70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F25673-3F17-4C2E-82BD-85835CFF1E8C}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3347,10 +3347,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>47985</v>
+        <v>2838</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>152</v>
@@ -3362,34 +3362,34 @@
         <v>154</v>
       </c>
       <c r="H10" s="7">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>50118</v>
+        <v>1249</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>155</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>6</v>
+      </c>
+      <c r="N10" s="7">
+        <v>4086</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="M10" s="7">
-        <v>142</v>
-      </c>
-      <c r="N10" s="7">
-        <v>98102</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3398,28 +3398,28 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>14844</v>
+        <v>2197</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>3</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2259</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="H11" s="7">
-        <v>11</v>
-      </c>
-      <c r="I11" s="7">
-        <v>7982</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>164</v>
@@ -3428,10 +3428,10 @@
         <v>165</v>
       </c>
       <c r="M11" s="7">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="N11" s="7">
-        <v>22826</v>
+        <v>4456</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>166</v>
@@ -3449,10 +3449,10 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="D12" s="7">
-        <v>87733</v>
+        <v>12697</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>169</v>
@@ -3464,10 +3464,10 @@
         <v>171</v>
       </c>
       <c r="H12" s="7">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="I12" s="7">
-        <v>86275</v>
+        <v>11424</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>172</v>
@@ -3476,22 +3476,22 @@
         <v>173</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="M12" s="7">
-        <v>253</v>
+        <v>34</v>
       </c>
       <c r="N12" s="7">
-        <v>174008</v>
+        <v>24121</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3500,49 +3500,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D13" s="7">
-        <v>6577</v>
+        <v>22380</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="I13" s="7">
-        <v>2350</v>
+        <v>27524</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>96</v>
+        <v>183</v>
       </c>
       <c r="M13" s="7">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="N13" s="7">
-        <v>8927</v>
+        <v>49904</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3551,49 +3551,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>161</v>
+        <v>36</v>
       </c>
       <c r="D14" s="7">
-        <v>108549</v>
+        <v>26062</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H14" s="7">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="I14" s="7">
-        <v>103356</v>
+        <v>29513</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M14" s="7">
-        <v>308</v>
+        <v>77</v>
       </c>
       <c r="N14" s="7">
-        <v>211905</v>
+        <v>55575</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3602,96 +3602,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>391</v>
+        <v>92</v>
       </c>
       <c r="D15" s="7">
-        <v>265687</v>
+        <v>66174</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H15" s="7">
-        <v>356</v>
+        <v>101</v>
       </c>
       <c r="I15" s="7">
-        <v>250081</v>
+        <v>71969</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M15" s="7">
-        <v>747</v>
+        <v>193</v>
       </c>
       <c r="N15" s="7">
-        <v>515768</v>
+        <v>138143</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D16" s="7">
-        <v>12697</v>
+        <v>6577</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H16" s="7">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>11424</v>
+        <v>2350</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>199</v>
+        <v>24</v>
       </c>
       <c r="M16" s="7">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="N16" s="7">
-        <v>24121</v>
+        <v>8927</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>201</v>
@@ -3706,10 +3706,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D17" s="7">
-        <v>2197</v>
+        <v>14844</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>203</v>
@@ -3721,34 +3721,34 @@
         <v>205</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I17" s="7">
-        <v>2259</v>
+        <v>7982</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>32</v>
+      </c>
+      <c r="N17" s="7">
+        <v>22826</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="M17" s="7">
-        <v>6</v>
-      </c>
-      <c r="N17" s="7">
-        <v>4456</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,49 +3757,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="D18" s="7">
-        <v>22380</v>
+        <v>47985</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7">
+        <v>70</v>
+      </c>
+      <c r="I18" s="7">
+        <v>50118</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="H18" s="7">
-        <v>39</v>
-      </c>
-      <c r="I18" s="7">
-        <v>27524</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>142</v>
+      </c>
+      <c r="N18" s="7">
+        <v>98102</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="M18" s="7">
-        <v>70</v>
-      </c>
-      <c r="N18" s="7">
-        <v>49904</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3808,40 +3808,40 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>4</v>
+        <v>128</v>
       </c>
       <c r="D19" s="7">
-        <v>2838</v>
+        <v>87733</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>125</v>
+      </c>
+      <c r="I19" s="7">
+        <v>86275</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="H19" s="7">
-        <v>2</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1249</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>182</v>
-      </c>
       <c r="K19" s="7" t="s">
-        <v>72</v>
+        <v>224</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>224</v>
+        <v>96</v>
       </c>
       <c r="M19" s="7">
-        <v>6</v>
+        <v>253</v>
       </c>
       <c r="N19" s="7">
-        <v>4086</v>
+        <v>174008</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>225</v>
@@ -3859,10 +3859,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="D20" s="7">
-        <v>26062</v>
+        <v>108549</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>228</v>
@@ -3874,10 +3874,10 @@
         <v>230</v>
       </c>
       <c r="H20" s="7">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="I20" s="7">
-        <v>29513</v>
+        <v>103356</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>231</v>
@@ -3889,10 +3889,10 @@
         <v>233</v>
       </c>
       <c r="M20" s="7">
-        <v>77</v>
+        <v>308</v>
       </c>
       <c r="N20" s="7">
-        <v>55575</v>
+        <v>211905</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>234</v>
@@ -3910,49 +3910,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>92</v>
+        <v>391</v>
       </c>
       <c r="D21" s="7">
-        <v>66174</v>
+        <v>265687</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H21" s="7">
-        <v>101</v>
+        <v>356</v>
       </c>
       <c r="I21" s="7">
-        <v>71969</v>
+        <v>250081</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M21" s="7">
-        <v>193</v>
+        <v>747</v>
       </c>
       <c r="N21" s="7">
-        <v>138143</v>
+        <v>515768</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3963,10 +3963,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="D22" s="7">
-        <v>60682</v>
+        <v>9414</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>237</v>
@@ -3978,10 +3978,10 @@
         <v>239</v>
       </c>
       <c r="H22" s="7">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="I22" s="7">
-        <v>61541</v>
+        <v>3599</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>240</v>
@@ -3993,19 +3993,19 @@
         <v>242</v>
       </c>
       <c r="M22" s="7">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="N22" s="7">
-        <v>122223</v>
+        <v>13013</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>243</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>244</v>
+        <v>21</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,13 +4020,13 @@
         <v>17042</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H23" s="7">
         <v>14</v>
@@ -4035,13 +4035,13 @@
         <v>10241</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M23" s="7">
         <v>38</v>
@@ -4050,13 +4050,13 @@
         <v>27282</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4065,49 +4065,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>159</v>
+        <v>90</v>
       </c>
       <c r="D24" s="7">
-        <v>110113</v>
+        <v>60682</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>86</v>
+      </c>
+      <c r="I24" s="7">
+        <v>61541</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="H24" s="7">
-        <v>164</v>
-      </c>
-      <c r="I24" s="7">
-        <v>113799</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>176</v>
+      </c>
+      <c r="N24" s="7">
+        <v>122223</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="M24" s="7">
-        <v>323</v>
-      </c>
-      <c r="N24" s="7">
-        <v>223912</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4116,49 +4116,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>13</v>
+        <v>159</v>
       </c>
       <c r="D25" s="7">
-        <v>9414</v>
+        <v>110113</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>164</v>
+      </c>
+      <c r="I25" s="7">
+        <v>113799</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="H25" s="7">
-        <v>5</v>
-      </c>
-      <c r="I25" s="7">
-        <v>3599</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>323</v>
+      </c>
+      <c r="N25" s="7">
+        <v>223912</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="M25" s="7">
-        <v>18</v>
-      </c>
-      <c r="N25" s="7">
-        <v>13013</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4224,13 +4224,13 @@
         <v>331861</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H27" s="7">
         <v>457</v>
@@ -4239,13 +4239,13 @@
         <v>322050</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M27" s="7">
         <v>940</v>
@@ -4254,13 +4254,13 @@
         <v>653911</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -4279,7 +4279,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B615C759-3659-46E4-834C-07B377B82424}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405127E8-C2CD-4137-881C-6609E6354916}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4669,49 +4669,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>76978</v>
+        <v>593</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>280</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>4</v>
+      </c>
+      <c r="I10" s="7">
+        <v>2506</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="H10" s="7">
-        <v>90</v>
-      </c>
-      <c r="I10" s="7">
-        <v>63819</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>5</v>
+      </c>
+      <c r="N10" s="7">
+        <v>3099</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="M10" s="7">
-        <v>192</v>
-      </c>
-      <c r="N10" s="7">
-        <v>140797</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4720,49 +4720,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>18738</v>
+        <v>3444</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H11" s="7">
+        <v>10</v>
+      </c>
+      <c r="I11" s="7">
+        <v>6557</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="H11" s="7">
-        <v>30</v>
-      </c>
-      <c r="I11" s="7">
-        <v>22882</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>15</v>
+      </c>
+      <c r="N11" s="7">
+        <v>10001</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="M11" s="7">
-        <v>54</v>
-      </c>
-      <c r="N11" s="7">
-        <v>41621</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4771,49 +4771,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="D12" s="7">
-        <v>87310</v>
+        <v>18661</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H12" s="7">
+        <v>45</v>
+      </c>
+      <c r="I12" s="7">
+        <v>30212</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="H12" s="7">
-        <v>123</v>
-      </c>
-      <c r="I12" s="7">
-        <v>88702</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>72</v>
+      </c>
+      <c r="N12" s="7">
+        <v>48873</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="M12" s="7">
-        <v>243</v>
-      </c>
-      <c r="N12" s="7">
-        <v>176011</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4822,49 +4822,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="D13" s="7">
-        <v>3439</v>
+        <v>22926</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H13" s="7">
+        <v>38</v>
+      </c>
+      <c r="I13" s="7">
+        <v>24340</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>71</v>
+      </c>
+      <c r="N13" s="7">
+        <v>47266</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="H13" s="7">
-        <v>16</v>
-      </c>
-      <c r="I13" s="7">
-        <v>11177</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="M13" s="7">
-        <v>21</v>
-      </c>
-      <c r="N13" s="7">
-        <v>14616</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,49 +4873,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>129</v>
+        <v>49</v>
       </c>
       <c r="D14" s="7">
-        <v>94576</v>
+        <v>34108</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="H14" s="7">
+        <v>40</v>
+      </c>
+      <c r="I14" s="7">
+        <v>27334</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>89</v>
+      </c>
+      <c r="N14" s="7">
+        <v>61442</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="H14" s="7">
-        <v>112</v>
-      </c>
-      <c r="I14" s="7">
-        <v>78154</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="M14" s="7">
-        <v>241</v>
-      </c>
-      <c r="N14" s="7">
-        <v>172731</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4924,102 +4924,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>380</v>
+        <v>115</v>
       </c>
       <c r="D15" s="7">
-        <v>281041</v>
+        <v>79732</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H15" s="7">
-        <v>371</v>
+        <v>137</v>
       </c>
       <c r="I15" s="7">
-        <v>264735</v>
+        <v>90949</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M15" s="7">
-        <v>751</v>
+        <v>252</v>
       </c>
       <c r="N15" s="7">
-        <v>545776</v>
+        <v>170681</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>18661</v>
+        <v>3439</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="H16" s="7">
+        <v>16</v>
+      </c>
+      <c r="I16" s="7">
+        <v>11177</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>21</v>
+      </c>
+      <c r="N16" s="7">
+        <v>14616</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="H16" s="7">
-        <v>45</v>
-      </c>
-      <c r="I16" s="7">
-        <v>30212</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="M16" s="7">
-        <v>72</v>
-      </c>
-      <c r="N16" s="7">
-        <v>48873</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5028,49 +5028,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D17" s="7">
-        <v>3444</v>
+        <v>18738</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H17" s="7">
+        <v>30</v>
+      </c>
+      <c r="I17" s="7">
+        <v>22882</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>54</v>
+      </c>
+      <c r="N17" s="7">
+        <v>41621</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="H17" s="7">
-        <v>10</v>
-      </c>
-      <c r="I17" s="7">
-        <v>6557</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="M17" s="7">
-        <v>15</v>
-      </c>
-      <c r="N17" s="7">
-        <v>10001</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5079,49 +5079,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="D18" s="7">
-        <v>22926</v>
+        <v>76978</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>112</v>
+        <v>337</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="H18" s="7">
+        <v>90</v>
+      </c>
+      <c r="I18" s="7">
+        <v>63819</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H18" s="7">
-        <v>38</v>
-      </c>
-      <c r="I18" s="7">
-        <v>24340</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>192</v>
+      </c>
+      <c r="N18" s="7">
+        <v>140797</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="M18" s="7">
-        <v>71</v>
-      </c>
-      <c r="N18" s="7">
-        <v>47266</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5130,43 +5130,43 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="D19" s="7">
-        <v>593</v>
+        <v>87310</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>123</v>
+      </c>
+      <c r="I19" s="7">
+        <v>88702</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="H19" s="7">
-        <v>4</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2506</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>243</v>
+      </c>
+      <c r="N19" s="7">
+        <v>176011</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="M19" s="7">
-        <v>5</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3099</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>353</v>
@@ -5181,10 +5181,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>49</v>
+        <v>129</v>
       </c>
       <c r="D20" s="7">
-        <v>34108</v>
+        <v>94576</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>355</v>
@@ -5196,10 +5196,10 @@
         <v>357</v>
       </c>
       <c r="H20" s="7">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="I20" s="7">
-        <v>27334</v>
+        <v>78154</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>358</v>
@@ -5211,10 +5211,10 @@
         <v>360</v>
       </c>
       <c r="M20" s="7">
-        <v>89</v>
+        <v>241</v>
       </c>
       <c r="N20" s="7">
-        <v>61442</v>
+        <v>172731</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>361</v>
@@ -5232,49 +5232,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>115</v>
+        <v>380</v>
       </c>
       <c r="D21" s="7">
-        <v>79732</v>
+        <v>281041</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H21" s="7">
-        <v>137</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>90949</v>
+        <v>264735</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M21" s="7">
-        <v>252</v>
+        <v>751</v>
       </c>
       <c r="N21" s="7">
-        <v>170681</v>
+        <v>545776</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5285,49 +5285,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>129</v>
+        <v>6</v>
       </c>
       <c r="D22" s="7">
-        <v>95639</v>
+        <v>4032</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>20</v>
+      </c>
+      <c r="I22" s="7">
+        <v>13683</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="H22" s="7">
-        <v>135</v>
-      </c>
-      <c r="I22" s="7">
-        <v>94031</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>26</v>
+      </c>
+      <c r="N22" s="7">
+        <v>17715</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="M22" s="7">
-        <v>264</v>
-      </c>
-      <c r="N22" s="7">
-        <v>189670</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5342,13 +5342,13 @@
         <v>22182</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H23" s="7">
         <v>40</v>
@@ -5357,13 +5357,13 @@
         <v>29440</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="M23" s="7">
         <v>69</v>
@@ -5372,13 +5372,13 @@
         <v>51621</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>335</v>
+        <v>289</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5387,49 +5387,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="D24" s="7">
-        <v>110235</v>
+        <v>95639</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>135</v>
+      </c>
+      <c r="I24" s="7">
+        <v>94031</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="H24" s="7">
-        <v>161</v>
-      </c>
-      <c r="I24" s="7">
-        <v>113041</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>264</v>
+      </c>
+      <c r="N24" s="7">
+        <v>189670</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="M24" s="7">
-        <v>314</v>
-      </c>
-      <c r="N24" s="7">
-        <v>223277</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5438,46 +5438,46 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="D25" s="7">
-        <v>4032</v>
+        <v>110235</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>266</v>
+        <v>385</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>161</v>
+      </c>
+      <c r="I25" s="7">
+        <v>113041</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="H25" s="7">
-        <v>20</v>
-      </c>
-      <c r="I25" s="7">
-        <v>13683</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>314</v>
+      </c>
+      <c r="N25" s="7">
+        <v>223277</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="M25" s="7">
-        <v>26</v>
-      </c>
-      <c r="N25" s="7">
-        <v>17715</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>393</v>
@@ -5528,7 +5528,7 @@
         <v>400</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>401</v>
@@ -5546,13 +5546,13 @@
         <v>360773</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H27" s="7">
         <v>508</v>
@@ -5561,13 +5561,13 @@
         <v>355684</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M27" s="7">
         <v>1003</v>
@@ -5576,13 +5576,13 @@
         <v>716457</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A12-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A12-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C783AA0-251B-458C-A37B-8FAD00F205ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7624782B-EE7A-4983-ACB2-CAD0DA00D6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{FDE58E3B-5124-4F5C-8D95-912A6EE07690}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ECAD6181-974F-4895-BEF6-525FB0C5F976}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="404">
   <si>
     <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2007 (Tasa respuesta: 47,24%)</t>
   </si>
@@ -67,1183 +67,1189 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2012 (Tasa respuesta: 44,78%)</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
   </si>
   <si>
     <t>1,15%</t>
   </si>
   <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
   </si>
   <si>
     <t>2,8%</t>
   </si>
   <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2015 (Tasa respuesta: 47,18%)</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
   </si>
   <si>
     <t>2,18%</t>
   </si>
   <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
   </si>
   <si>
     <t>26,57%</t>
   </si>
   <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2012 (Tasa respuesta: 44,78%)</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2015 (Tasa respuesta: 47,18%)</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
   </si>
   <si>
     <t>7,21%</t>
   </si>
   <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
   </si>
   <si>
     <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
   </si>
 </sst>
 </file>
@@ -1254,7 +1260,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1350,39 +1356,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1434,7 +1440,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1545,13 +1551,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1560,6 +1559,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1624,19 +1630,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A3228C5-58CF-49C4-95ED-01CC98CE1CD5}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{915565F4-A195-40A6-9C7F-B71D2F2F1D04}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2025,49 +2051,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>6</v>
-      </c>
-      <c r="D10" s="7">
-        <v>4025</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>3</v>
-      </c>
-      <c r="I10" s="7">
-        <v>2058</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>9</v>
-      </c>
-      <c r="N10" s="7">
-        <v>6083</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2078,47 +2098,41 @@
       <c r="C11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>4</v>
-      </c>
-      <c r="I11" s="7">
-        <v>2522</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>4</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2522</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2127,49 +2141,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>24</v>
-      </c>
-      <c r="D12" s="7">
-        <v>15768</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>25</v>
-      </c>
-      <c r="I12" s="7">
-        <v>16977</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>49</v>
-      </c>
-      <c r="N12" s="7">
-        <v>32744</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2178,49 +2186,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>42</v>
-      </c>
-      <c r="D13" s="7">
-        <v>28293</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>29</v>
-      </c>
-      <c r="I13" s="7">
-        <v>18927</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>71</v>
-      </c>
-      <c r="N13" s="7">
-        <v>47219</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2229,49 +2231,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>28</v>
-      </c>
-      <c r="D14" s="7">
-        <v>17981</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>22</v>
-      </c>
-      <c r="I14" s="7">
-        <v>15559</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>50</v>
-      </c>
-      <c r="N14" s="7">
-        <v>33540</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2280,102 +2276,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>100</v>
-      </c>
-      <c r="D15" s="7">
-        <v>66066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>83</v>
-      </c>
-      <c r="I15" s="7">
-        <v>56042</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>183</v>
-      </c>
-      <c r="N15" s="7">
-        <v>122107</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D16" s="7">
-        <v>4032</v>
+        <v>37911</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="I16" s="7">
-        <v>3349</v>
+        <v>38376</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="N16" s="7">
-        <v>7381</v>
+        <v>76287</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2384,49 +2374,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="D17" s="7">
-        <v>8666</v>
+        <v>61600</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="I17" s="7">
-        <v>9457</v>
+        <v>45767</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>27</v>
+        <v>159</v>
       </c>
       <c r="N17" s="7">
-        <v>18123</v>
+        <v>107367</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2435,49 +2425,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="D18" s="7">
-        <v>63861</v>
+        <v>35349</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="I18" s="7">
-        <v>62635</v>
+        <v>36719</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="M18" s="7">
-        <v>191</v>
+        <v>109</v>
       </c>
       <c r="N18" s="7">
-        <v>126496</v>
+        <v>72068</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2486,49 +2476,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>175</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>117370</v>
+        <v>1935</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>166</v>
+        <v>5</v>
       </c>
       <c r="I19" s="7">
-        <v>113804</v>
+        <v>3313</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="M19" s="7">
-        <v>341</v>
+        <v>8</v>
       </c>
       <c r="N19" s="7">
-        <v>231174</v>
+        <v>5248</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2537,49 +2527,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>128</v>
+        <v>7</v>
       </c>
       <c r="D20" s="7">
-        <v>85591</v>
+        <v>4719</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="H20" s="7">
-        <v>113</v>
+        <v>4</v>
       </c>
       <c r="I20" s="7">
-        <v>75062</v>
+        <v>2719</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="M20" s="7">
-        <v>241</v>
+        <v>11</v>
       </c>
       <c r="N20" s="7">
-        <v>160654</v>
+        <v>7439</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2588,102 +2578,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>419</v>
+        <v>212</v>
       </c>
       <c r="D21" s="7">
-        <v>279521</v>
+        <v>141515</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H21" s="7">
-        <v>392</v>
+        <v>190</v>
       </c>
       <c r="I21" s="7">
-        <v>264307</v>
+        <v>126894</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M21" s="7">
-        <v>811</v>
+        <v>402</v>
       </c>
       <c r="N21" s="7">
-        <v>543829</v>
+        <v>268409</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="D22" s="7">
-        <v>8057</v>
+        <v>65662</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="H22" s="7">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="I22" s="7">
-        <v>5407</v>
+        <v>52245</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="M22" s="7">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="N22" s="7">
-        <v>13464</v>
+        <v>117906</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2692,49 +2682,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="D23" s="7">
-        <v>8666</v>
+        <v>84063</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="H23" s="7">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="I23" s="7">
-        <v>11979</v>
+        <v>86964</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="M23" s="7">
-        <v>31</v>
+        <v>253</v>
       </c>
       <c r="N23" s="7">
-        <v>20645</v>
+        <v>171027</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2743,49 +2733,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="D24" s="7">
-        <v>79629</v>
+        <v>44279</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="H24" s="7">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="I24" s="7">
-        <v>79611</v>
+        <v>42893</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="M24" s="7">
-        <v>240</v>
+        <v>131</v>
       </c>
       <c r="N24" s="7">
-        <v>159240</v>
+        <v>87172</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2794,49 +2784,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>217</v>
+        <v>10</v>
       </c>
       <c r="D25" s="7">
-        <v>145663</v>
+        <v>6731</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="H25" s="7">
-        <v>195</v>
+        <v>13</v>
       </c>
       <c r="I25" s="7">
-        <v>132730</v>
+        <v>8666</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="M25" s="7">
-        <v>412</v>
+        <v>23</v>
       </c>
       <c r="N25" s="7">
-        <v>278394</v>
+        <v>15397</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2845,49 +2835,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>156</v>
+        <v>5</v>
       </c>
       <c r="D26" s="7">
-        <v>103572</v>
+        <v>3337</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="H26" s="7">
-        <v>135</v>
+        <v>4</v>
       </c>
       <c r="I26" s="7">
-        <v>90621</v>
+        <v>2688</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="M26" s="7">
-        <v>291</v>
+        <v>9</v>
       </c>
       <c r="N26" s="7">
-        <v>194194</v>
+        <v>6025</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>148</v>
+        <v>61</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>150</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2896,55 +2886,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>307</v>
+      </c>
+      <c r="D27" s="7">
+        <v>204072</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
+        <v>285</v>
+      </c>
+      <c r="I27" s="7">
+        <v>193455</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" s="7">
+        <v>592</v>
+      </c>
+      <c r="N27" s="7">
+        <v>397527</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>156</v>
+      </c>
+      <c r="D28" s="7">
+        <v>103572</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H28" s="7">
+        <v>135</v>
+      </c>
+      <c r="I28" s="7">
+        <v>90621</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="M28" s="7">
+        <v>291</v>
+      </c>
+      <c r="N28" s="7">
+        <v>194194</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>217</v>
+      </c>
+      <c r="D29" s="7">
+        <v>145663</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H29" s="7">
+        <v>195</v>
+      </c>
+      <c r="I29" s="7">
+        <v>132730</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="M29" s="7">
+        <v>412</v>
+      </c>
+      <c r="N29" s="7">
+        <v>278394</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>121</v>
+      </c>
+      <c r="D30" s="7">
+        <v>79629</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H30" s="7">
+        <v>119</v>
+      </c>
+      <c r="I30" s="7">
+        <v>79611</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="M30" s="7">
+        <v>240</v>
+      </c>
+      <c r="N30" s="7">
+        <v>159240</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>13</v>
+      </c>
+      <c r="D31" s="7">
+        <v>8666</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H31" s="7">
+        <v>18</v>
+      </c>
+      <c r="I31" s="7">
+        <v>11979</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="M31" s="7">
+        <v>31</v>
+      </c>
+      <c r="N31" s="7">
+        <v>20645</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>12</v>
+      </c>
+      <c r="D32" s="7">
+        <v>8057</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H32" s="7">
+        <v>8</v>
+      </c>
+      <c r="I32" s="7">
+        <v>5407</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M32" s="7">
+        <v>20</v>
+      </c>
+      <c r="N32" s="7">
+        <v>13464</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>519</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>345587</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>475</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>320349</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M33" s="7">
         <v>994</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>665936</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>62</v>
+      <c r="O33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2957,8 +3261,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F25673-3F17-4C2E-82BD-85835CFF1E8C}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09385617-BA94-4C40-9EC4-753647854739}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2974,7 +3278,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3347,49 +3651,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
-      </c>
-      <c r="D10" s="7">
-        <v>2838</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1249</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>6</v>
-      </c>
-      <c r="N10" s="7">
-        <v>4086</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3398,49 +3696,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
-      </c>
-      <c r="D11" s="7">
-        <v>2197</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
-      </c>
-      <c r="I11" s="7">
-        <v>2259</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>6</v>
-      </c>
-      <c r="N11" s="7">
-        <v>4456</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>167</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>168</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3449,49 +3741,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>18</v>
-      </c>
-      <c r="D12" s="7">
-        <v>12697</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>16</v>
-      </c>
-      <c r="I12" s="7">
-        <v>11424</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>172</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>173</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>174</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>34</v>
-      </c>
-      <c r="N12" s="7">
-        <v>24121</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>175</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>176</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>177</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3500,49 +3786,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>31</v>
-      </c>
-      <c r="D13" s="7">
-        <v>22380</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>178</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>179</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>39</v>
-      </c>
-      <c r="I13" s="7">
-        <v>27524</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>181</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>182</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>70</v>
-      </c>
-      <c r="N13" s="7">
-        <v>49904</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>184</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>185</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>186</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3551,49 +3831,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>36</v>
-      </c>
-      <c r="D14" s="7">
-        <v>26062</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>187</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>188</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>189</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>41</v>
-      </c>
-      <c r="I14" s="7">
-        <v>29513</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>191</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>77</v>
-      </c>
-      <c r="N14" s="7">
-        <v>55575</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>193</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>194</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>195</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3602,102 +3876,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>92</v>
-      </c>
-      <c r="D15" s="7">
-        <v>66174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>101</v>
-      </c>
-      <c r="I15" s="7">
-        <v>71969</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>193</v>
-      </c>
-      <c r="N15" s="7">
-        <v>138143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="D16" s="7">
-        <v>6577</v>
+        <v>62819</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="I16" s="7">
-        <v>2350</v>
+        <v>70592</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>199</v>
+        <v>158</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>200</v>
+        <v>159</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>24</v>
+        <v>160</v>
       </c>
       <c r="M16" s="7">
-        <v>12</v>
+        <v>193</v>
       </c>
       <c r="N16" s="7">
-        <v>8927</v>
+        <v>133412</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,49 +3974,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="D17" s="7">
-        <v>14844</v>
+        <v>52431</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="H17" s="7">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="I17" s="7">
-        <v>7982</v>
+        <v>50814</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>112</v>
+        <v>167</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>207</v>
+        <v>169</v>
       </c>
       <c r="M17" s="7">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c r="N17" s="7">
-        <v>22826</v>
+        <v>103245</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>208</v>
+        <v>170</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,49 +4025,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="D18" s="7">
-        <v>47985</v>
+        <v>27335</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="H18" s="7">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="I18" s="7">
-        <v>50118</v>
+        <v>28561</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="M18" s="7">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="N18" s="7">
-        <v>98102</v>
+        <v>55896</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3808,49 +4076,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="D19" s="7">
-        <v>87733</v>
+        <v>8071</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>221</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
       <c r="H19" s="7">
-        <v>125</v>
+        <v>6</v>
       </c>
       <c r="I19" s="7">
-        <v>86275</v>
+        <v>4299</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>96</v>
+        <v>186</v>
       </c>
       <c r="M19" s="7">
-        <v>253</v>
+        <v>17</v>
       </c>
       <c r="N19" s="7">
-        <v>174008</v>
+        <v>12370</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3859,49 +4127,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>161</v>
+        <v>8</v>
       </c>
       <c r="D20" s="7">
-        <v>108549</v>
+        <v>6017</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
       <c r="H20" s="7">
-        <v>147</v>
+        <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>103356</v>
+        <v>1249</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>232</v>
+        <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="M20" s="7">
-        <v>308</v>
+        <v>10</v>
       </c>
       <c r="N20" s="7">
-        <v>211905</v>
+        <v>7266</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>234</v>
+        <v>145</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>236</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3910,102 +4178,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>391</v>
+        <v>225</v>
       </c>
       <c r="D21" s="7">
-        <v>265687</v>
+        <v>156674</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H21" s="7">
-        <v>356</v>
+        <v>221</v>
       </c>
       <c r="I21" s="7">
-        <v>250081</v>
+        <v>155514</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M21" s="7">
-        <v>747</v>
+        <v>446</v>
       </c>
       <c r="N21" s="7">
-        <v>515768</v>
+        <v>312189</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="D22" s="7">
-        <v>9414</v>
+        <v>71791</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>238</v>
+        <v>198</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>239</v>
+        <v>199</v>
       </c>
       <c r="H22" s="7">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="I22" s="7">
-        <v>3599</v>
+        <v>62277</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>240</v>
+        <v>122</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>241</v>
+        <v>200</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="M22" s="7">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="N22" s="7">
-        <v>13013</v>
+        <v>134069</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>243</v>
+        <v>202</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>21</v>
+        <v>203</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,49 +4282,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="D23" s="7">
-        <v>17042</v>
+        <v>57682</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="H23" s="7">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="I23" s="7">
-        <v>10241</v>
+        <v>62985</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>73</v>
+        <v>209</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>248</v>
+        <v>77</v>
       </c>
       <c r="M23" s="7">
-        <v>38</v>
+        <v>176</v>
       </c>
       <c r="N23" s="7">
-        <v>27282</v>
+        <v>120667</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4065,49 +4333,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D24" s="7">
-        <v>60682</v>
+        <v>33346</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="H24" s="7">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="I24" s="7">
-        <v>61541</v>
+        <v>32981</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="M24" s="7">
-        <v>176</v>
+        <v>97</v>
       </c>
       <c r="N24" s="7">
-        <v>122223</v>
+        <v>66327</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4116,49 +4384,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="D25" s="7">
-        <v>110113</v>
+        <v>8970</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="H25" s="7">
-        <v>164</v>
+        <v>8</v>
       </c>
       <c r="I25" s="7">
-        <v>113799</v>
+        <v>5942</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="M25" s="7">
-        <v>323</v>
+        <v>21</v>
       </c>
       <c r="N25" s="7">
-        <v>223912</v>
+        <v>14912</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4167,49 +4435,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>197</v>
+        <v>5</v>
       </c>
       <c r="D26" s="7">
-        <v>134610</v>
+        <v>3397</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="H26" s="7">
-        <v>188</v>
+        <v>3</v>
       </c>
       <c r="I26" s="7">
-        <v>132870</v>
+        <v>2350</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="M26" s="7">
-        <v>385</v>
+        <v>8</v>
       </c>
       <c r="N26" s="7">
-        <v>267480</v>
+        <v>5747</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,55 +4486,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>258</v>
+      </c>
+      <c r="D27" s="7">
+        <v>175187</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
+        <v>236</v>
+      </c>
+      <c r="I27" s="7">
+        <v>166535</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" s="7">
+        <v>494</v>
+      </c>
+      <c r="N27" s="7">
+        <v>341722</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>197</v>
+      </c>
+      <c r="D28" s="7">
+        <v>134610</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H28" s="7">
+        <v>188</v>
+      </c>
+      <c r="I28" s="7">
+        <v>132870</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="M28" s="7">
+        <v>385</v>
+      </c>
+      <c r="N28" s="7">
+        <v>267480</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>159</v>
+      </c>
+      <c r="D29" s="7">
+        <v>110113</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H29" s="7">
+        <v>164</v>
+      </c>
+      <c r="I29" s="7">
+        <v>113799</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="M29" s="7">
+        <v>323</v>
+      </c>
+      <c r="N29" s="7">
+        <v>223912</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>90</v>
+      </c>
+      <c r="D30" s="7">
+        <v>60682</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H30" s="7">
+        <v>86</v>
+      </c>
+      <c r="I30" s="7">
+        <v>61541</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="M30" s="7">
+        <v>176</v>
+      </c>
+      <c r="N30" s="7">
+        <v>122223</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>24</v>
+      </c>
+      <c r="D31" s="7">
+        <v>17042</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H31" s="7">
+        <v>14</v>
+      </c>
+      <c r="I31" s="7">
+        <v>10241</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="M31" s="7">
+        <v>38</v>
+      </c>
+      <c r="N31" s="7">
+        <v>27282</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>13</v>
+      </c>
+      <c r="D32" s="7">
+        <v>9414</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H32" s="7">
+        <v>5</v>
+      </c>
+      <c r="I32" s="7">
+        <v>3599</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="M32" s="7">
+        <v>18</v>
+      </c>
+      <c r="N32" s="7">
+        <v>13013</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>483</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>331861</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>457</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>322050</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M33" s="7">
         <v>940</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>653911</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>62</v>
+      <c r="O33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4279,8 +4861,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405127E8-C2CD-4137-881C-6609E6354916}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5239CFE-2799-4F4B-B86E-A873E59BDD47}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4296,7 +4878,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4669,49 +5251,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7">
-        <v>593</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>280</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>281</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
-      </c>
-      <c r="I10" s="7">
-        <v>2506</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>282</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>283</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>284</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>5</v>
-      </c>
-      <c r="N10" s="7">
-        <v>3099</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>285</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>286</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4720,49 +5296,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
-      </c>
-      <c r="D11" s="7">
-        <v>3444</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>287</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>288</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>10</v>
-      </c>
-      <c r="I11" s="7">
-        <v>6557</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>289</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>290</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>291</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>15</v>
-      </c>
-      <c r="N11" s="7">
-        <v>10001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>292</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>293</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>294</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4771,49 +5341,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>27</v>
-      </c>
-      <c r="D12" s="7">
-        <v>18661</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>295</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>296</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>297</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>45</v>
-      </c>
-      <c r="I12" s="7">
-        <v>30212</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>298</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>299</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>300</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>72</v>
-      </c>
-      <c r="N12" s="7">
-        <v>48873</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>301</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>302</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>303</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4822,49 +5386,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>33</v>
-      </c>
-      <c r="D13" s="7">
-        <v>22926</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>304</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>38</v>
-      </c>
-      <c r="I13" s="7">
-        <v>24340</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>305</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>306</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>307</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>71</v>
-      </c>
-      <c r="N13" s="7">
-        <v>47266</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>308</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>309</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>310</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,49 +5431,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>49</v>
-      </c>
-      <c r="D14" s="7">
-        <v>34108</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>311</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>312</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>313</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>40</v>
-      </c>
-      <c r="I14" s="7">
-        <v>27334</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>314</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>315</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>316</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>89</v>
-      </c>
-      <c r="N14" s="7">
-        <v>61442</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>317</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>318</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>319</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4924,102 +5476,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>115</v>
-      </c>
-      <c r="D15" s="7">
-        <v>79732</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>137</v>
-      </c>
-      <c r="I15" s="7">
-        <v>90949</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>252</v>
-      </c>
-      <c r="N15" s="7">
-        <v>170681</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="D16" s="7">
-        <v>3439</v>
+        <v>74810</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>320</v>
+        <v>284</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>321</v>
+        <v>285</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="H16" s="7">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="I16" s="7">
-        <v>11177</v>
+        <v>56292</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>323</v>
+        <v>287</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>24</v>
+        <v>288</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="M16" s="7">
-        <v>21</v>
+        <v>185</v>
       </c>
       <c r="N16" s="7">
-        <v>14616</v>
+        <v>131102</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>326</v>
+        <v>291</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>327</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5028,49 +5574,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="D17" s="7">
-        <v>18738</v>
+        <v>55097</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>330</v>
+        <v>295</v>
       </c>
       <c r="H17" s="7">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="I17" s="7">
-        <v>22882</v>
+        <v>57487</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>331</v>
+        <v>296</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="M17" s="7">
-        <v>54</v>
+        <v>161</v>
       </c>
       <c r="N17" s="7">
-        <v>41621</v>
+        <v>112584</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>334</v>
+        <v>299</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>335</v>
+        <v>300</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>336</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5079,49 +5625,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="D18" s="7">
-        <v>76978</v>
+        <v>46358</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>337</v>
+        <v>302</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>338</v>
+        <v>303</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>339</v>
+        <v>304</v>
       </c>
       <c r="H18" s="7">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="I18" s="7">
-        <v>63819</v>
+        <v>46029</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>340</v>
+        <v>305</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>341</v>
+        <v>306</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>342</v>
+        <v>307</v>
       </c>
       <c r="M18" s="7">
-        <v>192</v>
+        <v>130</v>
       </c>
       <c r="N18" s="7">
-        <v>140797</v>
+        <v>92387</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>343</v>
+        <v>308</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>345</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5130,49 +5676,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="D19" s="7">
-        <v>87310</v>
+        <v>8412</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>346</v>
+        <v>310</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>347</v>
+        <v>311</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>348</v>
+        <v>312</v>
       </c>
       <c r="H19" s="7">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="I19" s="7">
-        <v>88702</v>
+        <v>16340</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>349</v>
+        <v>313</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>350</v>
+        <v>314</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>351</v>
+        <v>315</v>
       </c>
       <c r="M19" s="7">
-        <v>243</v>
+        <v>33</v>
       </c>
       <c r="N19" s="7">
-        <v>176011</v>
+        <v>24752</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>352</v>
+        <v>316</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>353</v>
+        <v>317</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>354</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5181,49 +5727,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>129</v>
+        <v>4</v>
       </c>
       <c r="D20" s="7">
-        <v>94576</v>
+        <v>2636</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>355</v>
+        <v>234</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>357</v>
+        <v>320</v>
       </c>
       <c r="H20" s="7">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="I20" s="7">
-        <v>78154</v>
+        <v>8747</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>358</v>
+        <v>276</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>359</v>
+        <v>321</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>360</v>
+        <v>312</v>
       </c>
       <c r="M20" s="7">
-        <v>241</v>
+        <v>17</v>
       </c>
       <c r="N20" s="7">
-        <v>172731</v>
+        <v>11382</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>361</v>
+        <v>322</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>362</v>
+        <v>323</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>363</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5232,102 +5778,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>380</v>
+        <v>261</v>
       </c>
       <c r="D21" s="7">
-        <v>281041</v>
+        <v>187313</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H21" s="7">
-        <v>371</v>
+        <v>265</v>
       </c>
       <c r="I21" s="7">
-        <v>264735</v>
+        <v>184895</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M21" s="7">
-        <v>751</v>
+        <v>526</v>
       </c>
       <c r="N21" s="7">
-        <v>545776</v>
+        <v>372208</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="D22" s="7">
-        <v>4032</v>
+        <v>53874</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>240</v>
+        <v>325</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>364</v>
+        <v>326</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
       <c r="H22" s="7">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="I22" s="7">
-        <v>13683</v>
+        <v>49197</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>367</v>
+        <v>329</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>368</v>
+        <v>330</v>
       </c>
       <c r="M22" s="7">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="N22" s="7">
-        <v>17715</v>
+        <v>103071</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>369</v>
+        <v>331</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>206</v>
+        <v>332</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5336,49 +5882,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="D23" s="7">
-        <v>22182</v>
+        <v>55138</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>371</v>
+        <v>334</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="H23" s="7">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="I23" s="7">
-        <v>29440</v>
+        <v>55554</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>373</v>
+        <v>337</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>374</v>
+        <v>339</v>
       </c>
       <c r="M23" s="7">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c r="N23" s="7">
-        <v>51621</v>
+        <v>110692</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>375</v>
+        <v>341</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5387,49 +5933,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="D24" s="7">
-        <v>95639</v>
+        <v>49281</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>376</v>
+        <v>343</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>377</v>
+        <v>344</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
       <c r="H24" s="7">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="I24" s="7">
-        <v>94031</v>
+        <v>48002</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>379</v>
+        <v>346</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>380</v>
+        <v>347</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>381</v>
+        <v>348</v>
       </c>
       <c r="M24" s="7">
-        <v>264</v>
+        <v>134</v>
       </c>
       <c r="N24" s="7">
-        <v>189670</v>
+        <v>97283</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>382</v>
+        <v>349</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>383</v>
+        <v>350</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>384</v>
+        <v>351</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5438,49 +5984,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="D25" s="7">
-        <v>110235</v>
+        <v>13770</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="H25" s="7">
-        <v>161</v>
+        <v>18</v>
       </c>
       <c r="I25" s="7">
-        <v>113041</v>
+        <v>13099</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>389</v>
+        <v>356</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>390</v>
+        <v>357</v>
       </c>
       <c r="M25" s="7">
-        <v>314</v>
+        <v>36</v>
       </c>
       <c r="N25" s="7">
-        <v>223277</v>
+        <v>26869</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>391</v>
+        <v>358</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>392</v>
+        <v>359</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>393</v>
+        <v>360</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5489,49 +6035,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>178</v>
+        <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>128684</v>
+        <v>1396</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>394</v>
+        <v>107</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>395</v>
+        <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>396</v>
+        <v>279</v>
       </c>
       <c r="H26" s="7">
-        <v>152</v>
+        <v>7</v>
       </c>
       <c r="I26" s="7">
-        <v>105489</v>
+        <v>4936</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>397</v>
+        <v>361</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>398</v>
+        <v>55</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="M26" s="7">
-        <v>330</v>
+        <v>9</v>
       </c>
       <c r="N26" s="7">
-        <v>234173</v>
+        <v>6333</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>400</v>
+        <v>363</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>401</v>
+        <v>365</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5540,55 +6086,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>234</v>
+      </c>
+      <c r="D27" s="7">
+        <v>173460</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
+        <v>243</v>
+      </c>
+      <c r="I27" s="7">
+        <v>170789</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" s="7">
+        <v>477</v>
+      </c>
+      <c r="N27" s="7">
+        <v>344249</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>178</v>
+      </c>
+      <c r="D28" s="7">
+        <v>128684</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="H28" s="7">
+        <v>152</v>
+      </c>
+      <c r="I28" s="7">
+        <v>105489</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="M28" s="7">
+        <v>330</v>
+      </c>
+      <c r="N28" s="7">
+        <v>234173</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>153</v>
+      </c>
+      <c r="D29" s="7">
+        <v>110235</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="H29" s="7">
+        <v>161</v>
+      </c>
+      <c r="I29" s="7">
+        <v>113041</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="M29" s="7">
+        <v>314</v>
+      </c>
+      <c r="N29" s="7">
+        <v>223277</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>129</v>
+      </c>
+      <c r="D30" s="7">
+        <v>95639</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="H30" s="7">
+        <v>135</v>
+      </c>
+      <c r="I30" s="7">
+        <v>94031</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="M30" s="7">
+        <v>264</v>
+      </c>
+      <c r="N30" s="7">
+        <v>189670</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>29</v>
+      </c>
+      <c r="D31" s="7">
+        <v>22182</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="H31" s="7">
+        <v>40</v>
+      </c>
+      <c r="I31" s="7">
+        <v>29440</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="M31" s="7">
+        <v>69</v>
+      </c>
+      <c r="N31" s="7">
+        <v>51621</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>6</v>
+      </c>
+      <c r="D32" s="7">
+        <v>4032</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="H32" s="7">
+        <v>20</v>
+      </c>
+      <c r="I32" s="7">
+        <v>13683</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="M32" s="7">
+        <v>26</v>
+      </c>
+      <c r="N32" s="7">
+        <v>17715</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>495</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>360773</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>508</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>355684</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M33" s="7">
         <v>1003</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>716457</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>62</v>
+      <c r="O33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07A12-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A12-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7624782B-EE7A-4983-ACB2-CAD0DA00D6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EF87178-7212-4879-BC33-5D6CAED74A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ECAD6181-974F-4895-BEF6-525FB0C5F976}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B8AFE7F2-55A8-4928-A266-2CB8644C1CF0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="402">
   <si>
     <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2007 (Tasa respuesta: 47,24%)</t>
   </si>
@@ -97,1159 +97,1153 @@
     <t>26,79%</t>
   </si>
   <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
   </si>
   <si>
     <t>30,24%</t>
   </si>
   <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
   </si>
   <si>
     <t>28,42%</t>
   </si>
   <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
   </si>
   <si>
     <t>43,53%</t>
   </si>
   <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
   </si>
   <si>
     <t>36,07%</t>
   </si>
   <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
   </si>
   <si>
     <t>40,0%</t>
   </si>
   <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
   </si>
   <si>
     <t>24,98%</t>
   </si>
   <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
   </si>
   <si>
     <t>28,94%</t>
   </si>
   <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
   </si>
   <si>
     <t>26,85%</t>
   </si>
   <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
   </si>
   <si>
     <t>1,37%</t>
   </si>
   <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2012 (Tasa respuesta: 44,78%)</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
   </si>
   <si>
     <t>6,34%</t>
   </si>
   <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2016 (Tasa respuesta: 47,18%)</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
   </si>
   <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2012 (Tasa respuesta: 44,78%)</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2015 (Tasa respuesta: 47,18%)</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
+    <t>2,92%</t>
   </si>
   <si>
     <t>2,89%</t>
   </si>
   <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
   </si>
   <si>
     <t>35,67%</t>
   </si>
   <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
   </si>
   <si>
     <t>32,68%</t>
   </si>
   <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
   </si>
   <si>
     <t>30,56%</t>
   </si>
   <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
   </si>
   <si>
     <t>31,78%</t>
   </si>
   <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
   </si>
   <si>
     <t>31,16%</t>
   </si>
   <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
   </si>
   <si>
     <t>26,51%</t>
   </si>
   <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
+    <t>22,98%</t>
   </si>
   <si>
     <t>26,44%</t>
   </si>
   <si>
-    <t>23,02%</t>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
   </si>
   <si>
     <t>26,47%</t>
   </si>
   <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
+    <t>23,77%</t>
   </si>
   <si>
     <t>6,15%</t>
   </si>
   <si>
-    <t>8,63%</t>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
   </si>
   <si>
     <t>8,28%</t>
   </si>
   <si>
-    <t>10,96%</t>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
   </si>
   <si>
     <t>7,21%</t>
   </si>
   <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
   </si>
   <si>
     <t>3,85%</t>
   </si>
   <si>
-    <t>6,04%</t>
+    <t>2,49%</t>
   </si>
   <si>
     <t>2,47%</t>
   </si>
   <si>
-    <t>1,6%</t>
+    <t>3,52%</t>
   </si>
 </sst>
 </file>
@@ -1661,7 +1655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{915565F4-A195-40A6-9C7F-B71D2F2F1D04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B0570C-E4A6-47D0-AA7B-655402F296AA}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2871,13 +2865,13 @@
         <v>6025</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,13 +2939,13 @@
         <v>103572</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H28" s="7">
         <v>135</v>
@@ -2960,13 +2954,13 @@
         <v>90621</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M28" s="7">
         <v>291</v>
@@ -2975,13 +2969,13 @@
         <v>194194</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2996,13 +2990,13 @@
         <v>145663</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H29" s="7">
         <v>195</v>
@@ -3011,13 +3005,13 @@
         <v>132730</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M29" s="7">
         <v>412</v>
@@ -3026,13 +3020,13 @@
         <v>278394</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3047,13 +3041,13 @@
         <v>79629</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H30" s="7">
         <v>119</v>
@@ -3062,13 +3056,13 @@
         <v>79611</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M30" s="7">
         <v>240</v>
@@ -3077,13 +3071,13 @@
         <v>159240</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3098,10 +3092,10 @@
         <v>8666</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>138</v>
@@ -3182,10 +3176,10 @@
         <v>151</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3241,7 +3235,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -3261,7 +3255,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09385617-BA94-4C40-9EC4-753647854739}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765E5A32-EB3F-43E2-81BB-C4E2F445D6A4}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3278,7 +3272,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3929,13 +3923,13 @@
         <v>62819</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="H16" s="7">
         <v>101</v>
@@ -4052,7 +4046,7 @@
         <v>177</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="M18" s="7">
         <v>79</v>
@@ -4061,13 +4055,13 @@
         <v>55896</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,10 +4076,10 @@
         <v>8071</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>183</v>
@@ -4151,10 +4145,10 @@
         <v>193</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>46</v>
+        <v>194</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
@@ -4166,10 +4160,10 @@
         <v>145</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4237,13 +4231,13 @@
         <v>71791</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H22" s="7">
         <v>87</v>
@@ -4252,13 +4246,13 @@
         <v>62277</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>122</v>
+        <v>201</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M22" s="7">
         <v>192</v>
@@ -4267,13 +4261,13 @@
         <v>134069</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,13 +4282,13 @@
         <v>57682</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H23" s="7">
         <v>91</v>
@@ -4303,13 +4297,13 @@
         <v>62985</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="M23" s="7">
         <v>176</v>
@@ -4318,13 +4312,13 @@
         <v>120667</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,13 +4333,13 @@
         <v>33346</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H24" s="7">
         <v>47</v>
@@ -4354,13 +4348,13 @@
         <v>32981</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M24" s="7">
         <v>97</v>
@@ -4369,13 +4363,13 @@
         <v>66327</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,13 +4384,13 @@
         <v>8970</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -4405,13 +4399,13 @@
         <v>5942</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>226</v>
+        <v>148</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M25" s="7">
         <v>21</v>
@@ -4420,13 +4414,13 @@
         <v>14912</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4441,13 +4435,13 @@
         <v>3397</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -4456,13 +4450,13 @@
         <v>2350</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M26" s="7">
         <v>8</v>
@@ -4471,13 +4465,13 @@
         <v>5747</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>237</v>
+        <v>191</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>239</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4617,7 +4611,7 @@
         <v>253</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>207</v>
+        <v>254</v>
       </c>
       <c r="M29" s="7">
         <v>323</v>
@@ -4626,13 +4620,13 @@
         <v>223912</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4749,10 +4743,10 @@
         <v>9414</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>276</v>
@@ -4782,10 +4776,10 @@
         <v>280</v>
       </c>
       <c r="P32" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4841,7 +4835,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -4861,7 +4855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5239CFE-2799-4F4B-B86E-A873E59BDD47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0E26F0-2234-457A-9664-01D575E5C816}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4878,7 +4872,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5529,13 +5523,13 @@
         <v>74810</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="H16" s="7">
         <v>81</v>
@@ -5544,13 +5538,13 @@
         <v>56292</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M16" s="7">
         <v>185</v>
@@ -5559,13 +5553,13 @@
         <v>131102</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5580,13 +5574,13 @@
         <v>55097</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="H17" s="7">
         <v>83</v>
@@ -5595,13 +5589,13 @@
         <v>57487</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="M17" s="7">
         <v>161</v>
@@ -5610,13 +5604,13 @@
         <v>112584</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5631,13 +5625,13 @@
         <v>46358</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="H18" s="7">
         <v>66</v>
@@ -5646,13 +5640,13 @@
         <v>46029</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="M18" s="7">
         <v>130</v>
@@ -5661,10 +5655,10 @@
         <v>92387</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>309</v>
@@ -5685,10 +5679,10 @@
         <v>310</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="H19" s="7">
         <v>22</v>
@@ -5697,13 +5691,13 @@
         <v>16340</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="M19" s="7">
         <v>33</v>
@@ -5712,13 +5706,13 @@
         <v>24752</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5733,13 +5727,13 @@
         <v>2636</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="H20" s="7">
         <v>13</v>
@@ -5748,13 +5742,13 @@
         <v>8747</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>276</v>
+        <v>320</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>321</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="M20" s="7">
         <v>17</v>
@@ -5763,13 +5757,13 @@
         <v>11382</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>322</v>
+        <v>153</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>323</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>324</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5837,13 +5831,13 @@
         <v>53874</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="H22" s="7">
         <v>71</v>
@@ -5852,13 +5846,13 @@
         <v>49197</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="M22" s="7">
         <v>145</v>
@@ -5867,13 +5861,13 @@
         <v>103071</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5888,13 +5882,13 @@
         <v>55138</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="H23" s="7">
         <v>78</v>
@@ -5903,13 +5897,13 @@
         <v>55554</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="M23" s="7">
         <v>153</v>
@@ -5918,13 +5912,13 @@
         <v>110692</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5939,13 +5933,13 @@
         <v>49281</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="H24" s="7">
         <v>69</v>
@@ -5954,13 +5948,13 @@
         <v>48002</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="M24" s="7">
         <v>134</v>
@@ -5969,13 +5963,13 @@
         <v>97283</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5990,13 +5984,13 @@
         <v>13770</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
@@ -6005,13 +5999,13 @@
         <v>13099</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>355</v>
+        <v>311</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>356</v>
+        <v>320</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="M25" s="7">
         <v>36</v>
@@ -6020,13 +6014,13 @@
         <v>26869</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6041,13 +6035,13 @@
         <v>1396</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>107</v>
+        <v>358</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>46</v>
+        <v>194</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>279</v>
+        <v>359</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
@@ -6056,10 +6050,10 @@
         <v>4936</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>362</v>
@@ -6071,13 +6065,13 @@
         <v>6333</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>364</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>365</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6145,13 +6139,13 @@
         <v>128684</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="H28" s="7">
         <v>152</v>
@@ -6163,10 +6157,10 @@
         <v>71</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="M28" s="7">
         <v>330</v>
@@ -6175,13 +6169,13 @@
         <v>234173</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6196,13 +6190,13 @@
         <v>110235</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H29" s="7">
         <v>161</v>
@@ -6211,13 +6205,13 @@
         <v>113041</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="M29" s="7">
         <v>314</v>
@@ -6226,13 +6220,13 @@
         <v>223277</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6247,13 +6241,13 @@
         <v>95639</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="H30" s="7">
         <v>135</v>
@@ -6262,13 +6256,13 @@
         <v>94031</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>307</v>
+        <v>384</v>
       </c>
       <c r="M30" s="7">
         <v>264</v>
@@ -6277,13 +6271,13 @@
         <v>189670</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>390</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6298,13 +6292,13 @@
         <v>22182</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>272</v>
+        <v>388</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H31" s="7">
         <v>40</v>
@@ -6313,13 +6307,13 @@
         <v>29440</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>362</v>
+        <v>391</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="M31" s="7">
         <v>69</v>
@@ -6328,13 +6322,13 @@
         <v>51621</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6352,10 +6346,10 @@
         <v>277</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H32" s="7">
         <v>20</v>
@@ -6364,13 +6358,13 @@
         <v>13683</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>188</v>
+        <v>399</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>401</v>
+        <v>94</v>
       </c>
       <c r="M32" s="7">
         <v>26</v>
@@ -6379,13 +6373,13 @@
         <v>17715</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>403</v>
+        <v>148</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>267</v>
+        <v>401</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6441,7 +6435,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A12-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A12-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EF87178-7212-4879-BC33-5D6CAED74A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32A41790-CD59-49E8-AC2F-2BE1352865C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B8AFE7F2-55A8-4928-A266-2CB8644C1CF0}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{EA6F0DC7-F6B4-4BB6-9474-0750814C178E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="403">
   <si>
     <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2007 (Tasa respuesta: 47,24%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -94,85 +94,94 @@
     <t>8-11</t>
   </si>
   <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
     <t>26,79%</t>
   </si>
   <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
   </si>
   <si>
     <t>28,42%</t>
   </si>
   <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
   </si>
   <si>
     <t>43,53%</t>
   </si>
   <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
   </si>
   <si>
     <t>40,0%</t>
   </si>
   <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
   </si>
   <si>
     <t>24,98%</t>
   </si>
   <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
   </si>
   <si>
     <t>26,85%</t>
   </si>
   <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
   </si>
   <si>
     <t>1,37%</t>
@@ -181,52 +190,43 @@
     <t>0,4%</t>
   </si>
   <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
+    <t>3,66%</t>
   </si>
   <si>
     <t>1,96%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
   </si>
   <si>
     <t>3,33%</t>
   </si>
   <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
   </si>
   <si>
     <t>2,77%</t>
   </si>
   <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
   </si>
   <si>
     <t>100%</t>
@@ -235,1015 +235,1018 @@
     <t>12-15</t>
   </si>
   <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
     <t>32,18%</t>
   </si>
   <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
   </si>
   <si>
     <t>29,66%</t>
   </si>
   <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
   </si>
   <si>
     <t>41,19%</t>
   </si>
   <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
   </si>
   <si>
     <t>43,02%</t>
   </si>
   <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
   </si>
   <si>
     <t>21,7%</t>
   </si>
   <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
   </si>
   <si>
     <t>21,93%</t>
   </si>
   <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
   </si>
   <si>
     <t>3,3%</t>
   </si>
   <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
   </si>
   <si>
     <t>2,58%</t>
   </si>
   <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
   </si>
   <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
   </si>
   <si>
     <t>1,52%</t>
   </si>
   <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
   </si>
   <si>
     <t>29,97%</t>
   </si>
   <si>
-    <t>26,03%</t>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2012 (Tasa respuesta: 44,78%)</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2016 (Tasa respuesta: 47,18%)</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
   </si>
   <si>
     <t>34,13%</t>
   </si>
   <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2012 (Tasa respuesta: 44,78%)</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2016 (Tasa respuesta: 47,18%)</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
     <t>35,67%</t>
   </si>
   <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
+    <t>39,89%</t>
   </si>
   <si>
     <t>32,68%</t>
   </si>
   <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
   </si>
   <si>
     <t>30,56%</t>
   </si>
   <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
   </si>
   <si>
     <t>31,16%</t>
   </si>
   <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
   </si>
   <si>
     <t>26,51%</t>
   </si>
   <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
   </si>
   <si>
     <t>26,47%</t>
   </si>
   <si>
-    <t>23,77%</t>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
   </si>
   <si>
     <t>6,15%</t>
   </si>
   <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
   </si>
   <si>
     <t>7,21%</t>
   </si>
   <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
   </si>
   <si>
     <t>3,85%</t>
   </si>
   <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
   </si>
 </sst>
 </file>
@@ -1655,7 +1658,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B0570C-E4A6-47D0-AA7B-655402F296AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{128B5646-EE6C-40D0-86E2-111C8B4AFC67}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2317,10 +2320,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D16" s="7">
-        <v>37911</v>
+        <v>38376</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
@@ -2332,10 +2335,10 @@
         <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I16" s="7">
-        <v>38376</v>
+        <v>37911</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>21</v>
@@ -2368,10 +2371,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="D17" s="7">
-        <v>61600</v>
+        <v>45767</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>27</v>
@@ -2383,10 +2386,10 @@
         <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="I17" s="7">
-        <v>45767</v>
+        <v>61600</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>30</v>
@@ -2419,10 +2422,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="7">
-        <v>35349</v>
+        <v>36719</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>36</v>
@@ -2434,10 +2437,10 @@
         <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" s="7">
-        <v>36719</v>
+        <v>35349</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>39</v>
@@ -2470,10 +2473,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>1935</v>
+        <v>3313</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>45</v>
@@ -2485,10 +2488,10 @@
         <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>3313</v>
+        <v>1935</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>48</v>
@@ -2521,10 +2524,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D20" s="7">
-        <v>4719</v>
+        <v>2719</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>54</v>
@@ -2536,10 +2539,10 @@
         <v>56</v>
       </c>
       <c r="H20" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I20" s="7">
-        <v>2719</v>
+        <v>4719</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>57</v>
@@ -2572,25 +2575,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>190</v>
+      </c>
+      <c r="D21" s="7">
+        <v>126894</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="7">
         <v>212</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>141515</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H21" s="7">
-        <v>190</v>
-      </c>
-      <c r="I21" s="7">
-        <v>126894</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>63</v>
@@ -2625,10 +2628,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="D22" s="7">
-        <v>65662</v>
+        <v>52245</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>65</v>
@@ -2640,10 +2643,10 @@
         <v>67</v>
       </c>
       <c r="H22" s="7">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="I22" s="7">
-        <v>52245</v>
+        <v>65662</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>68</v>
@@ -2676,10 +2679,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D23" s="7">
-        <v>84063</v>
+        <v>86964</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>74</v>
@@ -2691,10 +2694,10 @@
         <v>76</v>
       </c>
       <c r="H23" s="7">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I23" s="7">
-        <v>86964</v>
+        <v>84063</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>77</v>
@@ -2727,10 +2730,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D24" s="7">
-        <v>44279</v>
+        <v>42893</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>83</v>
@@ -2742,10 +2745,10 @@
         <v>85</v>
       </c>
       <c r="H24" s="7">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I24" s="7">
-        <v>42893</v>
+        <v>44279</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>86</v>
@@ -2778,10 +2781,10 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D25" s="7">
-        <v>6731</v>
+        <v>8666</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>92</v>
@@ -2793,10 +2796,10 @@
         <v>94</v>
       </c>
       <c r="H25" s="7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I25" s="7">
-        <v>8666</v>
+        <v>6731</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>95</v>
@@ -2829,10 +2832,10 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" s="7">
-        <v>3337</v>
+        <v>2688</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>101</v>
@@ -2844,10 +2847,10 @@
         <v>103</v>
       </c>
       <c r="H26" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I26" s="7">
-        <v>2688</v>
+        <v>3337</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>104</v>
@@ -2880,25 +2883,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>285</v>
+      </c>
+      <c r="D27" s="7">
+        <v>193455</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
         <v>307</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>204072</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H27" s="7">
-        <v>285</v>
-      </c>
-      <c r="I27" s="7">
-        <v>193455</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>63</v>
@@ -2933,10 +2936,10 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D28" s="7">
-        <v>103572</v>
+        <v>90621</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>110</v>
@@ -2948,10 +2951,10 @@
         <v>112</v>
       </c>
       <c r="H28" s="7">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="I28" s="7">
-        <v>90621</v>
+        <v>103572</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>113</v>
@@ -2984,10 +2987,10 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="D29" s="7">
-        <v>145663</v>
+        <v>132730</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>119</v>
@@ -2999,10 +3002,10 @@
         <v>121</v>
       </c>
       <c r="H29" s="7">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="I29" s="7">
-        <v>132730</v>
+        <v>145663</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>122</v>
@@ -3035,10 +3038,10 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D30" s="7">
-        <v>79629</v>
+        <v>79611</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>128</v>
@@ -3050,10 +3053,10 @@
         <v>130</v>
       </c>
       <c r="H30" s="7">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I30" s="7">
-        <v>79611</v>
+        <v>79629</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>131</v>
@@ -3086,34 +3089,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D31" s="7">
-        <v>8666</v>
+        <v>11979</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>137</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H31" s="7">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I31" s="7">
-        <v>11979</v>
+        <v>8666</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M31" s="7">
         <v>31</v>
@@ -3122,13 +3125,13 @@
         <v>20645</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3137,34 +3140,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>8</v>
+      </c>
+      <c r="D32" s="7">
+        <v>5407</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H32" s="7">
         <v>12</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>8057</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="H32" s="7">
-        <v>8</v>
-      </c>
-      <c r="I32" s="7">
-        <v>5407</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M32" s="7">
         <v>20</v>
@@ -3173,13 +3176,13 @@
         <v>13464</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,25 +3191,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>475</v>
+      </c>
+      <c r="D33" s="7">
+        <v>320349</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>519</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>345587</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H33" s="7">
-        <v>475</v>
-      </c>
-      <c r="I33" s="7">
-        <v>320349</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>63</v>
@@ -3235,7 +3238,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3255,7 +3258,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765E5A32-EB3F-43E2-81BB-C4E2F445D6A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A112B826-CE0F-4C14-B824-C0E63253CA9A}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3272,7 +3275,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3917,34 +3920,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>101</v>
+      </c>
+      <c r="D16" s="7">
+        <v>70592</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H16" s="7">
         <v>92</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>62819</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H16" s="7">
-        <v>101</v>
-      </c>
-      <c r="I16" s="7">
-        <v>70592</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M16" s="7">
         <v>193</v>
@@ -3953,13 +3956,13 @@
         <v>133412</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3968,34 +3971,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>73</v>
+      </c>
+      <c r="D17" s="7">
+        <v>50814</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H17" s="7">
         <v>74</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>52431</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H17" s="7">
-        <v>73</v>
-      </c>
-      <c r="I17" s="7">
-        <v>50814</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M17" s="7">
         <v>147</v>
@@ -4004,13 +4007,13 @@
         <v>103245</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4019,34 +4022,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>39</v>
+      </c>
+      <c r="D18" s="7">
+        <v>28561</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H18" s="7">
         <v>40</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>27335</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="H18" s="7">
-        <v>39</v>
-      </c>
-      <c r="I18" s="7">
-        <v>28561</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="M18" s="7">
         <v>79</v>
@@ -4055,13 +4058,13 @@
         <v>55896</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,34 +4073,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D19" s="7">
+        <v>4299</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" s="7">
+        <v>11</v>
+      </c>
+      <c r="I19" s="7">
         <v>8071</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="H19" s="7">
-        <v>6</v>
-      </c>
-      <c r="I19" s="7">
-        <v>4299</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M19" s="7">
         <v>17</v>
@@ -4106,13 +4109,13 @@
         <v>12370</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,34 +4124,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>2</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1249</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H20" s="7">
         <v>8</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>6017</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1249</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
@@ -4157,13 +4160,13 @@
         <v>7266</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>196</v>
+        <v>150</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4172,25 +4175,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>221</v>
+      </c>
+      <c r="D21" s="7">
+        <v>155514</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="7">
         <v>225</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>156674</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H21" s="7">
-        <v>221</v>
-      </c>
-      <c r="I21" s="7">
-        <v>155514</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>63</v>
@@ -4225,34 +4228,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>87</v>
+      </c>
+      <c r="D22" s="7">
+        <v>62277</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H22" s="7">
         <v>105</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>71791</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H22" s="7">
-        <v>87</v>
-      </c>
-      <c r="I22" s="7">
-        <v>62277</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M22" s="7">
         <v>192</v>
@@ -4261,10 +4264,10 @@
         <v>134069</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>205</v>
+        <v>38</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>206</v>
@@ -4276,10 +4279,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D23" s="7">
-        <v>57682</v>
+        <v>62985</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>207</v>
@@ -4291,10 +4294,10 @@
         <v>209</v>
       </c>
       <c r="H23" s="7">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I23" s="7">
-        <v>62985</v>
+        <v>57682</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>210</v>
@@ -4327,10 +4330,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D24" s="7">
-        <v>33346</v>
+        <v>32981</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>216</v>
@@ -4342,10 +4345,10 @@
         <v>218</v>
       </c>
       <c r="H24" s="7">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I24" s="7">
-        <v>32981</v>
+        <v>33346</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>219</v>
@@ -4378,10 +4381,10 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D25" s="7">
-        <v>8970</v>
+        <v>5942</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>225</v>
@@ -4393,19 +4396,19 @@
         <v>227</v>
       </c>
       <c r="H25" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I25" s="7">
-        <v>5942</v>
+        <v>8970</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>228</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>229</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M25" s="7">
         <v>21</v>
@@ -4414,13 +4417,13 @@
         <v>14912</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,25 +4432,25 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>3</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2350</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H26" s="7">
         <v>5</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>3397</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="H26" s="7">
-        <v>3</v>
-      </c>
-      <c r="I26" s="7">
-        <v>2350</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>236</v>
@@ -4465,13 +4468,13 @@
         <v>5747</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>191</v>
+        <v>96</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4480,25 +4483,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>236</v>
+      </c>
+      <c r="D27" s="7">
+        <v>166535</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
         <v>258</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>175187</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H27" s="7">
-        <v>236</v>
-      </c>
-      <c r="I27" s="7">
-        <v>166535</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>63</v>
@@ -4533,10 +4536,10 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D28" s="7">
-        <v>134610</v>
+        <v>132870</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>240</v>
@@ -4548,10 +4551,10 @@
         <v>242</v>
       </c>
       <c r="H28" s="7">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="I28" s="7">
-        <v>132870</v>
+        <v>134610</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>243</v>
@@ -4584,10 +4587,10 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D29" s="7">
-        <v>110113</v>
+        <v>113799</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>249</v>
@@ -4599,10 +4602,10 @@
         <v>251</v>
       </c>
       <c r="H29" s="7">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I29" s="7">
-        <v>113799</v>
+        <v>110113</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>252</v>
@@ -4626,7 +4629,7 @@
         <v>256</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>210</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4635,10 +4638,10 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D30" s="7">
-        <v>60682</v>
+        <v>61541</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>257</v>
@@ -4650,10 +4653,10 @@
         <v>259</v>
       </c>
       <c r="H30" s="7">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="I30" s="7">
-        <v>61541</v>
+        <v>60682</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>260</v>
@@ -4686,10 +4689,10 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D31" s="7">
-        <v>17042</v>
+        <v>10241</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>266</v>
@@ -4701,10 +4704,10 @@
         <v>268</v>
       </c>
       <c r="H31" s="7">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I31" s="7">
-        <v>10241</v>
+        <v>17042</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>269</v>
@@ -4725,10 +4728,10 @@
         <v>272</v>
       </c>
       <c r="P31" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4737,13 +4740,13 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D32" s="7">
-        <v>9414</v>
+        <v>3599</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>195</v>
+        <v>274</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>275</v>
@@ -4752,10 +4755,10 @@
         <v>276</v>
       </c>
       <c r="H32" s="7">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I32" s="7">
-        <v>3599</v>
+        <v>9414</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>277</v>
@@ -4776,10 +4779,10 @@
         <v>280</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>196</v>
+        <v>281</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4788,25 +4791,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>457</v>
+      </c>
+      <c r="D33" s="7">
+        <v>322050</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>483</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>331861</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H33" s="7">
-        <v>457</v>
-      </c>
-      <c r="I33" s="7">
-        <v>322050</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>63</v>
@@ -4835,7 +4838,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -4855,7 +4858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0E26F0-2234-457A-9664-01D575E5C816}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914D413C-481B-4D5D-8B98-0F8D20A13EFE}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4872,7 +4875,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5517,34 +5520,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>81</v>
+      </c>
+      <c r="D16" s="7">
+        <v>56292</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H16" s="7">
         <v>104</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>74810</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="H16" s="7">
-        <v>81</v>
-      </c>
-      <c r="I16" s="7">
-        <v>56292</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M16" s="7">
         <v>185</v>
@@ -5553,13 +5556,13 @@
         <v>131102</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5568,13 +5571,13 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D17" s="7">
-        <v>55097</v>
+        <v>57487</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>292</v>
+        <v>250</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>293</v>
@@ -5583,10 +5586,10 @@
         <v>294</v>
       </c>
       <c r="H17" s="7">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I17" s="7">
-        <v>57487</v>
+        <v>55097</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>295</v>
@@ -5619,10 +5622,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D18" s="7">
-        <v>46358</v>
+        <v>46029</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>301</v>
@@ -5634,10 +5637,10 @@
         <v>303</v>
       </c>
       <c r="H18" s="7">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I18" s="7">
-        <v>46029</v>
+        <v>46358</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>304</v>
@@ -5670,34 +5673,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D19" s="7">
-        <v>8412</v>
+        <v>16340</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>310</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>145</v>
+        <v>311</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H19" s="7">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I19" s="7">
-        <v>16340</v>
+        <v>8412</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M19" s="7">
         <v>33</v>
@@ -5706,10 +5709,10 @@
         <v>24752</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>316</v>
+        <v>62</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>317</v>
@@ -5721,34 +5724,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>13</v>
+      </c>
+      <c r="D20" s="7">
+        <v>8747</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="H20" s="7">
         <v>4</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>2636</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="H20" s="7">
-        <v>13</v>
-      </c>
-      <c r="I20" s="7">
-        <v>8747</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>320</v>
+        <v>234</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>321</v>
+        <v>235</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>322</v>
+        <v>239</v>
       </c>
       <c r="M20" s="7">
         <v>17</v>
@@ -5757,13 +5760,13 @@
         <v>11382</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>153</v>
+        <v>282</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>62</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5772,25 +5775,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>265</v>
+      </c>
+      <c r="D21" s="7">
+        <v>184895</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="7">
         <v>261</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>187313</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H21" s="7">
-        <v>265</v>
-      </c>
-      <c r="I21" s="7">
-        <v>184895</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>63</v>
@@ -5825,34 +5828,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>71</v>
+      </c>
+      <c r="D22" s="7">
+        <v>49197</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H22" s="7">
         <v>74</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>53874</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="H22" s="7">
-        <v>71</v>
-      </c>
-      <c r="I22" s="7">
-        <v>49197</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="M22" s="7">
         <v>145</v>
@@ -5861,13 +5864,13 @@
         <v>103071</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>331</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>332</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5876,34 +5879,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>78</v>
+      </c>
+      <c r="D23" s="7">
+        <v>55554</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H23" s="7">
         <v>75</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>55138</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="H23" s="7">
-        <v>78</v>
-      </c>
-      <c r="I23" s="7">
-        <v>55554</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>337</v>
-      </c>
       <c r="L23" s="7" t="s">
-        <v>338</v>
+        <v>207</v>
       </c>
       <c r="M23" s="7">
         <v>153</v>
@@ -5912,13 +5915,13 @@
         <v>110692</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5927,34 +5930,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>69</v>
+      </c>
+      <c r="D24" s="7">
+        <v>48002</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="H24" s="7">
         <v>65</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>49281</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="H24" s="7">
-        <v>69</v>
-      </c>
-      <c r="I24" s="7">
-        <v>48002</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="M24" s="7">
         <v>134</v>
@@ -5963,13 +5966,13 @@
         <v>97283</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5981,31 +5984,31 @@
         <v>18</v>
       </c>
       <c r="D25" s="7">
-        <v>13770</v>
+        <v>13099</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
       </c>
       <c r="I25" s="7">
-        <v>13099</v>
+        <v>13770</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>311</v>
+        <v>351</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M25" s="7">
         <v>36</v>
@@ -6014,13 +6017,13 @@
         <v>26869</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6029,34 +6032,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D26" s="7">
-        <v>1396</v>
+        <v>4936</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>359</v>
       </c>
       <c r="H26" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>4936</v>
+        <v>1396</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>360</v>
+        <v>147</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>361</v>
+        <v>193</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>362</v>
+        <v>99</v>
       </c>
       <c r="M26" s="7">
         <v>9</v>
@@ -6065,13 +6068,13 @@
         <v>6333</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>319</v>
+        <v>361</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6080,25 +6083,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>243</v>
+      </c>
+      <c r="D27" s="7">
+        <v>170789</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
         <v>234</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>173460</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H27" s="7">
-        <v>243</v>
-      </c>
-      <c r="I27" s="7">
-        <v>170789</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>63</v>
@@ -6133,34 +6136,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>152</v>
+      </c>
+      <c r="D28" s="7">
+        <v>105489</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="H28" s="7">
         <v>178</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>128684</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="J28" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="K28" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="H28" s="7">
-        <v>152</v>
-      </c>
-      <c r="I28" s="7">
-        <v>105489</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="M28" s="7">
         <v>330</v>
@@ -6169,13 +6172,13 @@
         <v>234173</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6184,34 +6187,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>161</v>
+      </c>
+      <c r="D29" s="7">
+        <v>113041</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="H29" s="7">
         <v>153</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>110235</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="F29" s="7" t="s">
+      <c r="J29" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="H29" s="7">
-        <v>161</v>
-      </c>
-      <c r="I29" s="7">
-        <v>113041</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="M29" s="7">
         <v>314</v>
@@ -6220,13 +6223,13 @@
         <v>223277</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6235,34 +6238,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>135</v>
+      </c>
+      <c r="D30" s="7">
+        <v>94031</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="H30" s="7">
         <v>129</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>95639</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="F30" s="7" t="s">
+      <c r="J30" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="G30" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="H30" s="7">
-        <v>135</v>
-      </c>
-      <c r="I30" s="7">
-        <v>94031</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="M30" s="7">
         <v>264</v>
@@ -6271,13 +6274,13 @@
         <v>189670</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6286,10 +6289,10 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D31" s="7">
-        <v>22182</v>
+        <v>29440</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>387</v>
@@ -6301,10 +6304,10 @@
         <v>389</v>
       </c>
       <c r="H31" s="7">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="I31" s="7">
-        <v>29440</v>
+        <v>22182</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>390</v>
@@ -6337,34 +6340,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>20</v>
+      </c>
+      <c r="D32" s="7">
+        <v>13683</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="H32" s="7">
         <v>6</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>4032</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="H32" s="7">
-        <v>20</v>
-      </c>
-      <c r="I32" s="7">
-        <v>13683</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>398</v>
+        <v>274</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>399</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>94</v>
+        <v>400</v>
       </c>
       <c r="M32" s="7">
         <v>26</v>
@@ -6373,13 +6376,13 @@
         <v>17715</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>400</v>
+        <v>190</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>148</v>
+        <v>401</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6388,25 +6391,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>508</v>
+      </c>
+      <c r="D33" s="7">
+        <v>355684</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>495</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>360773</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H33" s="7">
-        <v>508</v>
-      </c>
-      <c r="I33" s="7">
-        <v>355684</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>63</v>
@@ -6435,7 +6438,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
